--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\land\CApULAbIFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\OR\land\CApULAbIFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A013F9F-75EE-41DC-9973-EB5F6EAD5B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C248A068-36C6-447B-8F18-9A1B09CC3F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
     <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
@@ -44,46 +47,40 @@
     <t>Per Acre</t>
   </si>
   <si>
-    <t>Increased Annual CO2 Sequestration Achievable by Improved Management Practices per Acre</t>
-  </si>
-  <si>
-    <t>tons CO2 / acre / yr</t>
-  </si>
-  <si>
-    <t>Low Estimate</t>
-  </si>
-  <si>
-    <t>High Estimate</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>g CO2 / acre / yr</t>
-  </si>
-  <si>
-    <t>Average, converted to grams CO2</t>
-  </si>
-  <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Greenhouse Gas Mitigation Potential in U.S. Forestry and Agriculture</t>
-  </si>
-  <si>
-    <t>http://www.epa.gov/climate/climatechange/Downloads/ccs/ghg_mitigation_forestry_ag_2005.pdf</t>
-  </si>
-  <si>
-    <t>Page 2-3, Table 2-1</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>Due to lack of specific Oregon data, the OR EPS keeps the US model's data. This may be an</t>
-  </si>
-  <si>
-    <t>under-estimate. The CA model features a higher level of CO2 abated per unit of land area.</t>
+    <t>Molecular weight of C</t>
+  </si>
+  <si>
+    <t>Molecular weight of CO2</t>
+  </si>
+  <si>
+    <t>Total acres in study</t>
+  </si>
+  <si>
+    <t>Maximum carbon sequestration (MMT per year)</t>
+  </si>
+  <si>
+    <t>grams CO2 per acre per year</t>
+  </si>
+  <si>
+    <t>g per ton</t>
+  </si>
+  <si>
+    <t>Incentives for Carbon Sequestration Using Forest Management</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/269692087_Incentives_for_Carbon_Sequestration_Using_Forest_Management</t>
+  </si>
+  <si>
+    <t>Figure 2</t>
+  </si>
+  <si>
+    <t>The source data represents improved forest management practices on existing non-harvested timberland.</t>
+  </si>
+  <si>
+    <t>Oregon</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,6 +144,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -163,6 +165,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208769</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE177CA-FBAB-4375-9546-D6F515F500BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1676400"/>
+          <a:ext cx="6247619" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,138 +537,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <f>42*1000000</f>
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2.1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>AVERAGE(A2:A3)</f>
-        <v>2.6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>A4*10^6</f>
-        <v>2600000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6">
+        <f>(B4*B3/B2*1000000)/B1*B5</f>
+        <v>523809.52380952385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -628,11 +680,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -645,8 +699,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>Calculations!A6</f>
-        <v>2600000</v>
+        <f>Calculations!B6</f>
+        <v>523809.52380952385</v>
       </c>
     </row>
   </sheetData>
